--- a/C&D.xlsx
+++ b/C&D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krith\huskiesInvent\HuskiesInventTeam5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9254A9-473D-4C53-964F-1ABDE1B0F131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E107AC-61C6-41B4-987D-E9D0EDFE4787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{DD0E8133-3D0B-4E84-9D61-459F2CA97A73}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
